--- a/workspace/180119/유로파 정보/프로빈스 정보.xlsx
+++ b/workspace/180119/유로파 정보/프로빈스 정보.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto7\Desktop\유로파 정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\Git\euro4\workspace\180119\유로파 정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,24 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바뀐 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바뀐 이름 (한글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>색상(R:G:B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,15 +50,535 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180113 추가 프로빈스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ADM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 (영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 (한글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함흥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강릉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ham-heung</t>
+  </si>
+  <si>
+    <t>Hae-ju</t>
+  </si>
+  <si>
+    <t>Won-ju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han-seong</t>
+  </si>
+  <si>
+    <t>Sang-ju</t>
+  </si>
+  <si>
+    <t>Jeon-ju</t>
+  </si>
+  <si>
+    <t>Hong-ju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyeong-yang</t>
+  </si>
+  <si>
+    <t>Gang-reung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Je-ju</t>
+  </si>
+  <si>
+    <t>Yuk-jin</t>
+  </si>
+  <si>
+    <t>Gil-ju</t>
+  </si>
+  <si>
+    <t>Ui-ju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeong-ju</t>
+  </si>
+  <si>
+    <t>Jin-ju</t>
+  </si>
+  <si>
+    <t>Na-ju</t>
+  </si>
+  <si>
+    <t>Chung-ju</t>
+  </si>
+  <si>
+    <t>Yeo-ju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwang-ju</t>
+  </si>
+  <si>
+    <t>Sa-gun</t>
+  </si>
+  <si>
+    <t>104;88;128</t>
+  </si>
+  <si>
+    <t>232;90;192</t>
+  </si>
+  <si>
+    <t>104;92;255</t>
+  </si>
+  <si>
+    <t>153;134;173</t>
+  </si>
+  <si>
+    <t>217;164;164</t>
+  </si>
+  <si>
+    <t>233;98;128</t>
+  </si>
+  <si>
+    <t>233;94;0</t>
+  </si>
+  <si>
+    <t>81;148;126</t>
+  </si>
+  <si>
+    <t>136;210;148</t>
+  </si>
+  <si>
+    <t>138;58;45</t>
+  </si>
+  <si>
+    <t>162;64;128</t>
+  </si>
+  <si>
+    <t>209;139;185</t>
+  </si>
+  <si>
+    <t>122;48;97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134;53;105</t>
+  </si>
+  <si>
+    <t>105;96;64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195;44;140</t>
+  </si>
+  <si>
+    <t>188;200;56</t>
+  </si>
+  <si>
+    <t>158;186;44</t>
+  </si>
+  <si>
+    <t>231;184;20</t>
+  </si>
+  <si>
+    <t>145;81;35</t>
+  </si>
+  <si>
+    <t>추가된 지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영흥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gae-seong</t>
+  </si>
+  <si>
+    <t>Gang-hwa</t>
+  </si>
+  <si>
+    <t>Tsushima</t>
+  </si>
+  <si>
+    <t>Yeong-byeon</t>
+  </si>
+  <si>
+    <t>An-ju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeong-ju</t>
+  </si>
+  <si>
+    <t>Yeong-heung</t>
+  </si>
+  <si>
+    <t>Gwang-ju</t>
+  </si>
+  <si>
+    <t>Pa-ju</t>
+  </si>
+  <si>
+    <t>Yang-ju</t>
+  </si>
+  <si>
+    <t>양주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheong-ju</t>
+  </si>
+  <si>
+    <t>Gong-ju</t>
+  </si>
+  <si>
+    <t>Chang-won</t>
+  </si>
+  <si>
+    <t>창원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An-dong</t>
+  </si>
+  <si>
+    <t>Seong-ju</t>
+  </si>
+  <si>
+    <t>83;255;71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135;88;86</t>
+  </si>
+  <si>
+    <t>130;65;80</t>
+  </si>
+  <si>
+    <t>105;255;30</t>
+  </si>
+  <si>
+    <t>147;119;39</t>
+  </si>
+  <si>
+    <t>255;94;76</t>
+  </si>
+  <si>
+    <t>241;255;48</t>
+  </si>
+  <si>
+    <t>209;255;135</t>
+  </si>
+  <si>
+    <t>255;61;80</t>
+  </si>
+  <si>
+    <t>255;125;20</t>
+  </si>
+  <si>
+    <t>160;62;35</t>
+  </si>
+  <si>
+    <t>161;127;255</t>
+  </si>
+  <si>
+    <t>58;232;87</t>
+  </si>
+  <si>
+    <t>131;164;164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47;60;163</t>
+  </si>
+  <si>
+    <t>163;48;26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평안도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함길도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황해도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모피(fur)</t>
+  </si>
+  <si>
+    <t>곡물(grain)</t>
+  </si>
+  <si>
+    <t>가축(livestock)</t>
+  </si>
+  <si>
+    <t>비단(silk)</t>
+  </si>
+  <si>
+    <t>종이(paper)</t>
+  </si>
+  <si>
+    <t>천(cloth)</t>
+  </si>
+  <si>
+    <t>보석(gems)</t>
+  </si>
+  <si>
+    <t>차(tea)</t>
+  </si>
+  <si>
+    <t>향(incense)</t>
+  </si>
+  <si>
+    <t>도자기(chinaware)</t>
+  </si>
+  <si>
+    <t>면(cotton)</t>
+  </si>
+  <si>
+    <t>생선(fish)</t>
+  </si>
+  <si>
+    <t>향신료(spices)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금(gold)</t>
+  </si>
+  <si>
+    <t>소금(gold)</t>
+  </si>
+  <si>
+    <t>철(iron)</t>
+  </si>
+  <si>
+    <t>highlands</t>
+  </si>
+  <si>
+    <t>grasslands</t>
+  </si>
+  <si>
+    <t>hills</t>
+  </si>
+  <si>
+    <t>farmlands</t>
+  </si>
+  <si>
+    <t>coastline</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>mild winter</t>
+  </si>
+  <si>
+    <t>normal winter</t>
+  </si>
+  <si>
+    <t>severe winter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +594,247 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF685880"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE85AC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF685CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9986AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9A4A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE96280"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE95E00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF51947E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88D294"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A3A2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA24080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD18BB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7A3061"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF863569"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF696040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC32C8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCC838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EBA2C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF915123"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7B814"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF53FF47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF875856"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF824150"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69FF1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF937727"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5E4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1FF30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1FF87"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3D50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA03E23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA17FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3AE857"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3301A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83A4A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F3CA3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,11 +851,125 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -122,6 +978,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2F3CA3"/>
+      <color rgb="FF83A4A4"/>
+      <color rgb="FFA3301A"/>
+      <color rgb="FF3AE857"/>
+      <color rgb="FFA17FFF"/>
+      <color rgb="FFA03E23"/>
+      <color rgb="FFFF7D14"/>
+      <color rgb="FFFF3D50"/>
+      <color rgb="FFD1FF87"/>
+      <color rgb="FFF1FF30"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -430,80 +1300,1486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="5" width="13.75" style="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="11" width="6.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="13.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>9</v>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>732</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>733</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>734</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>735</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>736</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>737</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1845</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2741</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2742</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2743</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2744</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2745</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4227</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4228</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4229</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4230</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>4231</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>4232</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>8202</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>8203</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>8204</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>8212</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>8213</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>8214</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>8224</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>8241</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>8243</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>8244</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>8262</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>8263</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>8272</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>8282</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>8283</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>8286</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="1">
+        <f>SUM(I3:I38)</f>
+        <v>96</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" ref="J39:K39" si="0">SUM(J3:J38)</f>
+        <v>95</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="L39" s="1">
+        <f>SUM(I39:K39)</f>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>